--- a/drl-jsim/results/compiled/Scalability-test.xlsx
+++ b/drl-jsim/results/compiled/Scalability-test.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="405" windowWidth="17895" windowHeight="7635" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="405" windowWidth="12330" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scalability-test" sheetId="1" r:id="rId1"/>
     <sheet name="Task Executions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>10 Nodes</t>
   </si>
@@ -82,12 +82,18 @@
   <si>
     <t>5 NODES</t>
   </si>
+  <si>
+    <t>5 Nodes</t>
+  </si>
+  <si>
+    <t>25 Nodes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,18 +103,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -136,14 +197,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,13 +212,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,41 +226,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -218,7 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,22 +257,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
@@ -263,145 +410,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -411,6 +435,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,17 +495,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,45 +536,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -523,105 +547,2531 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="34" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Efficiency/Scalability of Learning Algorithms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31876332622601278"/>
+          <c:y val="2.941182102447347E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1023454157782518E-2"/>
+          <c:y val="0.14705910512236733"/>
+          <c:w val="0.81876332622601278"/>
+          <c:h val="0.71764843299715264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability-test'!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0962954819379206E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0770201591721393E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2650567110090976E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0838311555126448E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7417299004894575E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability-test'!$L$9:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4944961886536653E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9275091293365482E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7697524229755664E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0638956352725122E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.04650333806276E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>15 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFCC"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability-test'!$L$21:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.4633104569892475E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8920761373390559E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6267496410256412E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3010071693735502E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2189728345505618E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>25 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CCFFFF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability-test'!$L$27:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0936956311971429E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3780478910158314E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5823103798696486E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.650408478579338E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.562669510945832E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="45222912"/>
+        <c:axId val="45237760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45222912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45522388059701491"/>
+              <c:y val="0.92549196823676516"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45237760"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45237760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Efficiency (cost per track)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7057569296375266E-2"/>
+              <c:y val="0.34705948808878695"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45222912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.91151385927505335"/>
+          <c:y val="0.42353022275241797"/>
+          <c:w val="7.9957356076759065E-2"/>
+          <c:h val="0.16666698580534967"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="920" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1025" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Global Reward/Scalability of Learning Algorithms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28924598269468482"/>
+          <c:y val="2.93542354855632E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7762669962917178E-2"/>
+          <c:y val="0.13502948323359074"/>
+          <c:w val="0.80964153275648953"/>
+          <c:h val="0.7416836832685636"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability-test'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1592.35979570323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>883.91563483581797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238.15342957524101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>665.83778236243597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>506.21213566281898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability-test'!$G$9:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>318.10582289670202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>238.308929754362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.883250266934901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201.31822189841299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.267768326508801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>15 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFCC"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability-test'!$G$21:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>192.28497429999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.9956268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.869046659999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156.92688200000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.37164241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>25 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CCFFFF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability-test'!$G$27:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49.766376153644501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.9049947686193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7710682004111797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.476464018217101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8279694976651504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="45288832"/>
+        <c:axId val="45291008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45288832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="850" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45611866501854142"/>
+              <c:y val="0.92955079037616806"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45291008"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45291008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="850" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Global Reward</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9777503090234856E-2"/>
+              <c:y val="0.42465794002448098"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45288832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.91100123609394312"/>
+          <c:y val="0.43052878712159359"/>
+          <c:w val="7.9110012360939425E-2"/>
+          <c:h val="0.15068507549255777"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="780" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>No. of Tracks/Scalability of Learning Algorithms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31111148619729723"/>
+          <c:y val="2.9296875E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0247010328667934E-2"/>
+          <c:y val="0.1328125"/>
+          <c:w val="0.8172849359627411"/>
+          <c:h val="0.744140625"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability-test'!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability-test'!$H$9:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>15 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFCC"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability-test'!$H$21:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>25 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CCFFFF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scalability-test'!$H$27:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="45342720"/>
+        <c:axId val="45344640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45342720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="850" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45308696600955584"/>
+              <c:y val="0.9296875"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45344640"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45344640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="850" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>No. of tracks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.975311023474903E-2"/>
+              <c:y val="0.43359375"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45342720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.91111220957779893"/>
+          <c:y val="0.4296875"/>
+          <c:w val="7.901244093899612E-2"/>
+          <c:h val="0.150390625"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="780" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="850" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Sleep Task Executions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40427807486631018"/>
+          <c:y val="2.93542354855632E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.197860962566845E-2"/>
+          <c:y val="0.14677117742781601"/>
+          <c:w val="0.80748663101604279"/>
+          <c:h val="0.71820029488011294"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task Executions'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="993366"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task Executions'!$B$10:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>15 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFCC"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task Executions'!$B$17:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>25 Nodes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CCFFFF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scalability-test'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>COIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIRL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RANDOM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SORA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TEAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task Executions'!$B$24:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="45392640"/>
+        <c:axId val="45394560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45392640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45989304812834225"/>
+              <c:y val="0.92563689231142632"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45394560"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45394560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>No. of executions of SLEEP </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7112299465240642E-2"/>
+              <c:y val="0.33268133550304962"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45392640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.91122994652406419"/>
+          <c:y val="0.42270099099211011"/>
+          <c:w val="8.0213903743315509E-2"/>
+          <c:h val="0.16634066775152481"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="920" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1025" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1026" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1027" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2049" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -909,10 +3359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L7"/>
+    <sheetView topLeftCell="A3" zoomScale="55" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -945,52 +3395,45 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1">
-      <c r="B3" s="2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>129</v>
-      </c>
-      <c r="D3" s="2">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2">
-        <v>8.59417319264459E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.61825492449776598</v>
-      </c>
-      <c r="G3" s="2">
-        <v>318.10582289670202</v>
-      </c>
-      <c r="H3" s="2">
-        <v>418</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="C3">
+        <v>173</v>
+      </c>
+      <c r="D3">
+        <v>173</v>
+      </c>
+      <c r="E3">
+        <v>2.5299262079921999E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.12995553478941699</v>
+      </c>
+      <c r="G3">
+        <v>1592.35979570323</v>
+      </c>
+      <c r="H3">
+        <v>255</v>
+      </c>
+      <c r="I3" s="1">
         <f>F3/H3</f>
-        <v>1.4790787667410669E-3</v>
-      </c>
-      <c r="J3" s="2">
-        <f>$I$10</f>
-        <v>1.5797674987714989E-3</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1.4246423004484305E-3</v>
-      </c>
-      <c r="L3" s="2">
+        <v>5.0962954819379206E-4</v>
+      </c>
+      <c r="L3" s="1">
         <f>AVERAGE(I3:K3)</f>
-        <v>1.4944961886536653E-3</v>
+        <v>5.0962954819379206E-4</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1004,31 +3447,24 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.27369540124119501</v>
+        <v>5.7954510315005703E-2</v>
       </c>
       <c r="F4">
-        <v>1.1485651600429301</v>
+        <v>0.184963761645042</v>
       </c>
       <c r="G4">
-        <v>238.308929754362</v>
+        <v>883.91563483581797</v>
       </c>
       <c r="H4">
-        <v>550</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I3:J13" si="0">F4/H4</f>
-        <v>2.0883002909871458E-3</v>
-      </c>
-      <c r="J4">
-        <f>$I$13</f>
-        <v>1.8013857439759036E-3</v>
-      </c>
-      <c r="K4">
-        <v>1.8928413530465951E-3</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" ref="L4:L7" si="1">AVERAGE(I4:K4)</f>
-        <v>1.9275091293365482E-3</v>
+        <v>229</v>
+      </c>
+      <c r="I4" s="1">
+        <f>F4/H4</f>
+        <v>8.0770201591721393E-4</v>
+      </c>
+      <c r="L4" s="1">
+        <f>AVERAGE(I4:K4)</f>
+        <v>8.0770201591721393E-4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1042,31 +3478,24 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.36878707566724E-2</v>
+        <v>1.1282529788038001E-2</v>
       </c>
       <c r="F5">
-        <v>1.17125974159212</v>
+        <v>0.36895140834402801</v>
       </c>
       <c r="G5">
-        <v>55.883250266934901</v>
+        <v>238.15342957524101</v>
       </c>
       <c r="H5">
-        <v>203</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7697524216360589E-3</v>
-      </c>
-      <c r="J5">
-        <f>$I$9</f>
-        <v>5.7697524236453197E-3</v>
-      </c>
-      <c r="K5">
-        <v>5.7697524236453197E-3</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="1"/>
-        <v>5.7697524229755664E-3</v>
+        <v>113</v>
+      </c>
+      <c r="I5" s="1">
+        <f>F5/H5</f>
+        <v>3.2650567110090976E-3</v>
+      </c>
+      <c r="L5" s="1">
+        <f>AVERAGE(I5:K5)</f>
+        <v>3.2650567110090976E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1080,31 +3509,24 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.42970834531045299</v>
+        <v>9.6118993683285595E-2</v>
       </c>
       <c r="F6">
-        <v>1.6125079217565299</v>
+        <v>0.29913739892148999</v>
       </c>
       <c r="G6">
-        <v>201.31822189841299</v>
+        <v>665.83778236243597</v>
       </c>
       <c r="H6">
-        <v>704</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2904942070405255E-3</v>
-      </c>
-      <c r="J6">
-        <f>$I$12</f>
-        <v>2.6535917476808906E-3</v>
-      </c>
-      <c r="K6">
-        <v>4.2476009510961209E-3</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="1"/>
-        <v>3.0638956352725122E-3</v>
+        <v>276</v>
+      </c>
+      <c r="I6" s="1">
+        <f>F6/H6</f>
+        <v>1.0838311555126448E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <f>AVERAGE(I6:K6)</f>
+        <v>1.0838311555126448E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1112,121 +3534,152 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="E7">
-        <v>6.7965701411088195E-2</v>
+        <v>2.7940058184297501E-2</v>
       </c>
       <c r="F7">
-        <v>2.41306672996439</v>
+        <v>0.47200880303264298</v>
       </c>
       <c r="G7">
-        <v>81.267768326508801</v>
+        <v>506.21213566281898</v>
       </c>
       <c r="H7">
-        <v>436</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5345567201018119E-3</v>
-      </c>
-      <c r="J7">
-        <f>$I$11</f>
-        <v>7.3437223540540547E-3</v>
-      </c>
-      <c r="K7">
-        <v>2.2612309400324151E-3</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="1"/>
-        <v>5.04650333806276E-3</v>
+        <v>271</v>
+      </c>
+      <c r="I7" s="1">
+        <f>F7/H7</f>
+        <v>1.7417299004894575E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <f>AVERAGE(I7:K7)</f>
+        <v>1.7417299004894575E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>3.3687871000000001E-2</v>
-      </c>
-      <c r="F9">
-        <v>1.1712597419999999</v>
-      </c>
-      <c r="G9">
-        <v>55.883250269999998</v>
-      </c>
-      <c r="H9">
-        <v>203</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7697524236453197E-3</v>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>129</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8.59417319264459E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.61825492449776598</v>
+      </c>
+      <c r="G9" s="1">
+        <v>318.10582289670202</v>
+      </c>
+      <c r="H9" s="1">
+        <v>418</v>
+      </c>
+      <c r="I9" s="1">
+        <f>F9/H9</f>
+        <v>1.4790787667410669E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.5797674987714989E-3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.4246423004484305E-3</v>
+      </c>
+      <c r="L9" s="1">
+        <f>AVERAGE(I9:K9)</f>
+        <v>1.4944961886536653E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>9.1799389999999995E-2</v>
+        <v>0.27369540124119501</v>
       </c>
       <c r="F10">
-        <v>0.64296537200000003</v>
+        <v>1.1485651600429301</v>
       </c>
       <c r="G10">
-        <v>273.38494450000002</v>
+        <v>238.308929754362</v>
       </c>
       <c r="H10">
-        <v>407</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5797674987714989E-3</v>
+        <v>550</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10:I19" si="0">F10/H10</f>
+        <v>2.0883002909871458E-3</v>
+      </c>
+      <c r="J10">
+        <v>1.8013857439759036E-3</v>
+      </c>
+      <c r="K10">
+        <v>1.8928413530465951E-3</v>
+      </c>
+      <c r="L10" s="1">
+        <f>AVERAGE(I10:K10)</f>
+        <v>1.9275091293365482E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>6.1542655000000002E-2</v>
+        <v>3.36878707566724E-2</v>
       </c>
       <c r="F11">
-        <v>2.7171772710000002</v>
+        <v>1.17125974159212</v>
       </c>
       <c r="G11">
-        <v>46.758491169999999</v>
+        <v>55.883250266934901</v>
       </c>
       <c r="H11">
-        <v>370</v>
-      </c>
-      <c r="I11" s="2">
+        <v>203</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>7.3437223540540547E-3</v>
+        <v>5.7697524216360589E-3</v>
+      </c>
+      <c r="J11">
+        <v>5.7697524236453197E-3</v>
+      </c>
+      <c r="K11">
+        <v>5.7697524236453197E-3</v>
+      </c>
+      <c r="L11" s="1">
+        <f>AVERAGE(I11:K11)</f>
+        <v>5.7697524229755664E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1240,132 +3693,573 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>0.42970834531045299</v>
+      </c>
+      <c r="F12">
+        <v>1.6125079217565299</v>
+      </c>
+      <c r="G12">
+        <v>201.31822189841299</v>
+      </c>
+      <c r="H12">
+        <v>704</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2904942070405255E-3</v>
+      </c>
+      <c r="J12">
+        <v>2.6535917476808906E-3</v>
+      </c>
+      <c r="K12">
+        <v>4.2476009510961209E-3</v>
+      </c>
+      <c r="L12" s="1">
+        <f>AVERAGE(I12:K12)</f>
+        <v>3.0638956352725122E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>6.7965701411088195E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.41306672996439</v>
+      </c>
+      <c r="G13">
+        <v>81.267768326508801</v>
+      </c>
+      <c r="H13">
+        <v>436</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5345567201018119E-3</v>
+      </c>
+      <c r="J13">
+        <v>7.3437223540540547E-3</v>
+      </c>
+      <c r="K13">
+        <v>2.2612309400324151E-3</v>
+      </c>
+      <c r="L13" s="1">
+        <f>AVERAGE(I13:K13)</f>
+        <v>5.04650333806276E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3.3687871000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.1712597419999999</v>
+      </c>
+      <c r="G15">
+        <v>55.883250269999998</v>
+      </c>
+      <c r="H15">
+        <v>203</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7697524236453197E-3</v>
+      </c>
+      <c r="L15" s="1">
+        <f>AVERAGE(I15:K15)</f>
+        <v>5.7697524236453197E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>102</v>
+      </c>
+      <c r="D16">
+        <v>72</v>
+      </c>
+      <c r="E16">
+        <v>9.1799389999999995E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.64296537200000003</v>
+      </c>
+      <c r="G16">
+        <v>273.38494450000002</v>
+      </c>
+      <c r="H16">
+        <v>407</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5797674987714989E-3</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" ref="L16:L25" si="1">AVERAGE(I16:K16)</f>
+        <v>1.5797674987714989E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>6.1542655000000002E-2</v>
+      </c>
+      <c r="F17">
+        <v>2.7171772710000002</v>
+      </c>
+      <c r="G17">
+        <v>46.758491169999999</v>
+      </c>
+      <c r="H17">
+        <v>370</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3437223540540547E-3</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3437223540540547E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>0.40302701400000002</v>
       </c>
-      <c r="F12">
+      <c r="F18">
         <v>1.430285952</v>
       </c>
-      <c r="G12">
+      <c r="G18">
         <v>186.74814839999999</v>
       </c>
-      <c r="H12">
+      <c r="H18">
         <v>539</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I18" s="1">
         <f t="shared" si="0"/>
         <v>2.6535917476808906E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" t="s">
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6535917476808906E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D19">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E19">
         <v>0.36382508400000002</v>
       </c>
-      <c r="F13">
+      <c r="F19">
         <v>1.1961201340000001</v>
       </c>
-      <c r="G13">
+      <c r="G19">
         <v>273.82172170000001</v>
       </c>
-      <c r="H13">
+      <c r="H19">
         <v>664</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I19" s="1">
         <f t="shared" si="0"/>
         <v>1.8013857439759036E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
+      <c r="L19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8013857439759036E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C15">
-        <v>67</v>
-      </c>
-      <c r="D15">
-        <v>46</v>
-      </c>
-      <c r="E15">
-        <v>0.13032866596349099</v>
-      </c>
-      <c r="F15">
-        <v>0.87157619975962997</v>
-      </c>
-      <c r="G15">
-        <v>175.80669908892</v>
-      </c>
-      <c r="H15">
-        <v>312</v>
-      </c>
-      <c r="I15" s="2">
-        <f>F15/H15</f>
-        <v>2.7935134607680449E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" t="s">
+      <c r="C21">
+        <v>72</v>
+      </c>
+      <c r="D21">
+        <v>49</v>
+      </c>
+      <c r="E21">
+        <v>0.164914744</v>
+      </c>
+      <c r="F21">
+        <v>0.91635149000000005</v>
+      </c>
+      <c r="G21">
+        <v>192.28497429999999</v>
+      </c>
+      <c r="H21">
+        <v>372</v>
+      </c>
+      <c r="I21" s="1">
+        <f>F21/H21</f>
+        <v>2.4633104569892475E-3</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4633104569892475E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="2" t="e">
-        <f t="shared" ref="I16:I19" si="2">F16/H16</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.276025242</v>
+      </c>
+      <c r="F22">
+        <v>1.34770748</v>
+      </c>
+      <c r="G22">
+        <v>158.9956268</v>
+      </c>
+      <c r="H22">
+        <v>466</v>
+      </c>
+      <c r="I22" s="1">
+        <f>F22/H22</f>
+        <v>2.8920761373390559E-3</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8920761373390559E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2.5741435E-2</v>
+      </c>
+      <c r="F23">
+        <v>1.90329708</v>
+      </c>
+      <c r="G23">
+        <v>21.869046659999999</v>
+      </c>
+      <c r="H23">
+        <v>117</v>
+      </c>
+      <c r="I23" s="1">
+        <f>F23/H23</f>
+        <v>1.6267496410256412E-2</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6267496410256412E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" t="s">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.30419551099999997</v>
+      </c>
+      <c r="F24">
+        <v>1.4227340900000001</v>
+      </c>
+      <c r="G24">
+        <v>156.92688200000001</v>
+      </c>
+      <c r="H24">
+        <v>431</v>
+      </c>
+      <c r="I24" s="1">
+        <f>F24/H24</f>
+        <v>3.3010071693735502E-3</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3010071693735502E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>0.16277429600000001</v>
+      </c>
+      <c r="F25">
+        <v>4.339543291</v>
+      </c>
+      <c r="G25">
+        <v>40.37164241</v>
+      </c>
+      <c r="H25">
+        <v>356</v>
+      </c>
+      <c r="I25" s="1">
+        <f>F25/H25</f>
+        <v>1.2189728345505618E-2</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2189728345505618E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>6.9675322053840694E-2</v>
+      </c>
+      <c r="F27">
+        <v>1.4163967354595</v>
+      </c>
+      <c r="G27">
+        <v>49.766376153644501</v>
+      </c>
+      <c r="H27">
+        <v>175</v>
+      </c>
+      <c r="I27" s="1">
+        <f>F27/H27</f>
+        <v>8.0936956311971429E-3</v>
+      </c>
+      <c r="L27" s="1">
+        <f>AVERAGE(I27:K27)</f>
+        <v>8.0936956311971429E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2.1377397717793199E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.96463352371108202</v>
+      </c>
+      <c r="G28">
+        <v>30.9049947686193</v>
+      </c>
+      <c r="H28">
+        <v>70</v>
+      </c>
+      <c r="I28" s="1">
+        <f>F28/H28</f>
+        <v>1.3780478910158314E-2</v>
+      </c>
+      <c r="L28" s="1">
+        <f>AVERAGE(I28:K28)</f>
+        <v>1.3780478910158314E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2.5741164971812499E-2</v>
+      </c>
+      <c r="F29">
+        <v>3.3673717570774699</v>
+      </c>
+      <c r="G29">
+        <v>6.7710682004111797</v>
+      </c>
+      <c r="H29">
+        <v>94</v>
+      </c>
+      <c r="I29" s="1">
+        <f>F29/H29</f>
+        <v>3.5823103798696486E-2</v>
+      </c>
+      <c r="L29" s="1">
+        <f>AVERAGE(I29:K29)</f>
+        <v>3.5823103798696486E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2.0843914397721899E-2</v>
+      </c>
+      <c r="F30">
+        <v>1.12227776543395</v>
+      </c>
+      <c r="G30">
+        <v>22.476464018217101</v>
+      </c>
+      <c r="H30">
+        <v>68</v>
+      </c>
+      <c r="I30" s="1">
+        <f>F30/H30</f>
+        <v>1.650408478579338E-2</v>
+      </c>
+      <c r="L30" s="1">
+        <f>AVERAGE(I30:K30)</f>
+        <v>1.650408478579338E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>3.88649793221797E-2</v>
+      </c>
+      <c r="F31">
+        <v>8.2201627305079992</v>
+      </c>
+      <c r="G31">
+        <v>5.8279694976651504</v>
+      </c>
+      <c r="H31">
+        <v>96</v>
+      </c>
+      <c r="I31" s="1">
+        <f>F31/H31</f>
+        <v>8.562669510945832E-2</v>
+      </c>
+      <c r="L31" s="1">
+        <f>AVERAGE(I31:K31)</f>
+        <v>8.562669510945832E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1374,7 +4268,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1697,6 +4591,8 @@
   <mergeCells count="1">
     <mergeCell ref="A16:D16"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>